--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3118.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3118.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.670744071111567</v>
+        <v>2.228395223617554</v>
       </c>
       <c r="B1">
-        <v>2.337297575460658</v>
+        <v>2.722322463989258</v>
       </c>
       <c r="C1">
-        <v>4.205049601839644</v>
+        <v>2.87277364730835</v>
       </c>
       <c r="D1">
-        <v>3.847740630744969</v>
+        <v>2.543979406356812</v>
       </c>
       <c r="E1">
-        <v>0.5600192991861589</v>
+        <v>0.8329096436500549</v>
       </c>
     </row>
   </sheetData>
